--- a/biology/Médecine/Humanités_médicales/Humanités_médicales.xlsx
+++ b/biology/Médecine/Humanités_médicales/Humanités_médicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Humanit%C3%A9s_m%C3%A9dicales</t>
+          <t>Humanités_médicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les humanités médicales (en anglais, medical humanities) sont un champ interdisciplinaire de la médecine incluant les sciences humaines (littérature[1], philosophie, éthique, histoire, religion), les sciences sociales (anthropologie, sociologie, psychologie), les arts et leurs applications dans la pédagogie médicale et l'exercice médical[2].
-Les humanités médicales sont aussi définies comme une dynamique internationale et interdisciplinaire qui étudie les liens créatifs et intellectuels entre diverses disciplines incluant littérature[1], art, histoire, fiction, politique et anthropologie dans des objectifs de formation médicale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les humanités médicales (en anglais, medical humanities) sont un champ interdisciplinaire de la médecine incluant les sciences humaines (littérature, philosophie, éthique, histoire, religion), les sciences sociales (anthropologie, sociologie, psychologie), les arts et leurs applications dans la pédagogie médicale et l'exercice médical.
+Les humanités médicales sont aussi définies comme une dynamique internationale et interdisciplinaire qui étudie les liens créatifs et intellectuels entre diverses disciplines incluant littérature, art, histoire, fiction, politique et anthropologie dans des objectifs de formation médicale.
 </t>
         </is>
       </c>
